--- a/data/trans_dic/P57_AC_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57_AC_R-Estudios-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>dukeCdic</t>
+          <t>Población con apoyo confidencial bajo (Duke)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P57_AC_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57_AC_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P57_AC_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57_AC_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,09%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,52%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,11%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,11%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,93%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,89%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,57%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,24%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,63%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,42%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,2%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>71,15; 76,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>67,43; 73,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>76,22; 82,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>62,97; 70,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>75,75; 80,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>73,41; 78,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>82,35; 87,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>67,82; 73,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>74,57; 78,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>71,75; 75,53</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>80,54; 84,1</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>66,8; 71,28</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,4%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,88%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,96%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,78%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,07%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>62,2; 66,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>62,55; 67,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>78,52; 82,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>55,89; 63,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>64,83; 69,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>71,14; 75,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>81,59; 84,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>60,85; 65,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>64,33; 67,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>67,23; 70,5</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>80,59; 82,91</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>59,41; 63,82</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,84%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,33%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,79%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,03%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,35%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,63%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,91%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,87%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,82%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,21%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,9%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>62,89; 71,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>58,91; 68,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>69,8; 77,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>54,81; 63,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>58,03; 66,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>59,49; 70,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>68,82; 76,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>51,43; 58,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>61,99; 67,87</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>60,38; 67,22</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>70,47; 75,72</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>54,26; 59,6</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,31%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,04%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,29%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,38%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,82%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,58%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,43%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>66,57; 69,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>64,59; 68,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>77,62; 80,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>57,91; 63,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>69,18; 72,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>71,63; 74,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>80,84; 83,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>61,76; 65,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>68,15; 70,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>68,66; 70,98</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>79,6; 81,49</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>60,71; 63,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57_AC_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57_AC_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>67,11%</t>
+          <t>66,1%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>70,57%</t>
+          <t>69,72%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>69,2%</t>
+          <t>68,25%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62,97; 70,85</t>
+          <t>61,91; 70,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>67,82; 73,19</t>
+          <t>67,01; 72,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>66,8; 71,28</t>
+          <t>65,77; 70,41</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>60,87%</t>
+          <t>54,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>63,28%</t>
+          <t>60,04%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>62,07%</t>
+          <t>57,0%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>55,89; 63,52</t>
+          <t>35,02; 61,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>60,85; 65,34</t>
+          <t>53,49; 63,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>59,41; 63,82</t>
+          <t>44,48; 61,47</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>59,03%</t>
+          <t>58,27%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>54,91%</t>
+          <t>54,57%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>56,9%</t>
+          <t>56,39%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>54,81; 63,26</t>
+          <t>53,95; 62,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>51,43; 58,73</t>
+          <t>51,14; 58,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>54,26; 59,6</t>
+          <t>53,65; 59,22</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>61,5%</t>
+          <t>56,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>63,29%</t>
+          <t>61,09%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>62,43%</t>
+          <t>58,94%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>57,91; 63,62</t>
+          <t>40,73; 61,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>61,76; 65,02</t>
+          <t>56,73; 63,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>60,71; 63,77</t>
+          <t>51,25; 61,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57_AC_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57_AC_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>71,15; 76,64</t>
+          <t>71,34; 76,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>67,43; 73,34</t>
+          <t>67,54; 73,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>76,22; 82,07</t>
+          <t>76,21; 82,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>61,91; 70,06</t>
+          <t>62,07; 69,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>75,75; 80,15</t>
+          <t>75,6; 80,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>73,41; 78,29</t>
+          <t>73,32; 78,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>82,35; 87,03</t>
+          <t>82,49; 87,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>67,01; 72,37</t>
+          <t>67,03; 72,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>74,57; 78,0</t>
+          <t>74,57; 77,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>71,75; 75,53</t>
+          <t>71,79; 75,48</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>80,54; 84,1</t>
+          <t>80,34; 84,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>65,77; 70,41</t>
+          <t>65,8; 70,29</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>62,2; 66,95</t>
+          <t>62,33; 66,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62,55; 67,0</t>
+          <t>62,83; 67,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>78,52; 82,08</t>
+          <t>78,58; 82,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>35,02; 61,66</t>
+          <t>36,95; 61,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>64,83; 69,43</t>
+          <t>64,89; 69,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>71,14; 75,55</t>
+          <t>71,29; 75,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>81,59; 84,8</t>
+          <t>81,43; 84,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>53,49; 63,58</t>
+          <t>52,33; 63,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>64,33; 67,61</t>
+          <t>64,11; 67,46</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>67,23; 70,5</t>
+          <t>67,44; 70,53</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>80,59; 82,91</t>
+          <t>80,54; 82,92</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>44,48; 61,47</t>
+          <t>46,24; 61,29</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>62,89; 71,03</t>
+          <t>62,71; 70,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>58,91; 68,63</t>
+          <t>58,39; 67,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69,8; 77,73</t>
+          <t>69,74; 77,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>53,95; 62,43</t>
+          <t>54,11; 62,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>58,03; 66,91</t>
+          <t>58,0; 67,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>59,49; 70,06</t>
+          <t>59,11; 69,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>68,82; 76,62</t>
+          <t>68,46; 76,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>51,14; 58,5</t>
+          <t>51,33; 57,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>61,99; 67,87</t>
+          <t>61,84; 67,88</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>60,38; 67,22</t>
+          <t>60,63; 67,6</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>70,47; 75,72</t>
+          <t>70,06; 75,71</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>53,65; 59,22</t>
+          <t>53,66; 58,91</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>66,57; 69,65</t>
+          <t>66,31; 69,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>64,59; 68,12</t>
+          <t>64,55; 67,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>77,62; 80,34</t>
+          <t>77,41; 80,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>40,73; 61,74</t>
+          <t>42,74; 61,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>69,18; 72,21</t>
+          <t>69,09; 72,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>71,63; 74,65</t>
+          <t>71,47; 74,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>80,84; 83,31</t>
+          <t>80,59; 83,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>56,73; 63,21</t>
+          <t>57,08; 63,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>68,15; 70,43</t>
+          <t>68,26; 70,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>68,66; 70,98</t>
+          <t>68,69; 70,93</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>79,6; 81,49</t>
+          <t>79,55; 81,49</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>51,25; 61,82</t>
+          <t>50,79; 61,86</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con apoyo confidencial bajo (Duke)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>765</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>997</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>940</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1762</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1565</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1352</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1454</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>764414</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>678227</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>595175</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>334615</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1024877</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1008217</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>838446</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>515233</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1789290</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1686444</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1433621</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>849847</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>736039; 791738</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>649594; 709356</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>573420; 617362</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>314193; 353662</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>994244; 1055751</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>974164; 1037709</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>814127; 860013</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>495335; 537173</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1750075; 1828625</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1644221; 1728739</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1397405; 1463507</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>819337; 875259</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1075</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1192</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1560</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1031</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1189</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1570</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2106</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2381</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3130</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3220</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1094678</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1268722</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1658595</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1237277</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1065588</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1285616</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1645758</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1205705</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2160266</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2554339</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3304352</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2442983</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1055541; 1132512</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1226874; 1314122</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1621007; 1696395</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>841389; 1398233</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1028904; 1102731</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1248401; 1325393</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1610421; 1677291</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1050883; 1270987</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2102038; 2211951</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2497826; 2612534</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3254295; 3350508</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1981449; 2626824</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>631</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>366774</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>302326</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>402174</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>371612</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>298247</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>292464</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>395514</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>358446</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>665021</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>594790</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>797687</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>730057</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>344120; 388052</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>278752; 324413</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>380089; 421648</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>345056; 399519</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>276310; 319443</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>268658; 313829</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>372787; 415530</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>337137; 379805</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>634024; 695848</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>565020; 629966</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>763274; 824867</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>694609; 762658</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2190</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2092</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2528</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2170</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2309</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2391</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2697</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3494</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>4499</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4483</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5225</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5664</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2225867</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2249274</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2655943</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1943503</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2388711</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2586297</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2879718</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2079384</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>4614577</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>4835572</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5535661</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>4022886</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2170969; 2275537</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2189613; 2301491</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2601080; 2699068</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1462267; 2116849</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2333250; 2435811</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2525973; 2638798</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2828127; 2926737</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1943043; 2153522</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>4539778; 4688116</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>4757309; 4912934</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>5464599; 5598177</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3466419; 4222045</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>